--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JIMMI\Documents\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33FF08F-EB13-4698-A88C-42BB7C807794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A33A1A0-1C37-43C1-8FFB-40BFDB3B8A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="257">
   <si>
     <t>Which AWS Route 53 routing policy would you use to route traffic to multiple resources and also choose how much traffic is routed to each resource?</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Latency routing policy</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Weighted routing policy: Amazon Route 53 is a highly available and scalable cloud Domain Name System (DNS) web service. It is designed to give developers and businesses an extremely reliable and cost-effective way to route end users to Internet applications by translating names like www.example.com into the numeric IP addresses like 192.0.2.1 that computers use to connect to each other. Weighted routing lets you associate multiple resources with a single domain name (example.com) or subdomain name (acme.example.com) and choose how much traffic is routed to each resource. This can be useful for a variety of purposes, including load balancing and testing new versions of software. To configure weighted routing, you create records that have the same name and type for each of your resources. You assign each record a relative weight that corresponds with how much traffic you want to send to each resource. Amazon Route 53 sends traffic to a resource based on the weight that you assign to the record as a proportion of the total weight for all records in the group. Weighted routing lets you associate multiple resources with a single domain name (example.com) or subdomain name (acme.example.com) and choose how much traffic is routed to each resource. This can be useful for a variety of purposes, including load balancing and testing new versions of software. To configure weighted routing, you create records that have the same name and type for each of your resources. You assign each record a relative weight that corresponds with how much traffic you want to send to each resource. Amazon Route 53 sends traffic to a resource based on the weight that you assign to the record as a proportion of the total weight for all records in the group.</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>AWS CodeDeploy</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Correct option: AWS CloudFormation: AWS CloudFormation gives developers and systems administrators an easy way to create and manage a collection of related AWS resources, provisioning and updating them in an orderly and predictable fashion.You can use the AWS CloudFormation sample templates or create your own templates to describe your AWS resources, and any associated dependencies or runtime parameters, required to run your application. This provides a single source of truth for all your resources and helps you to standardize infrastructure components used across your organization, enabling configuration compliance and faster troubleshooting.CloudFormation templates allow you to estimate the cost of your resources.</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>Multi-AZ enhances database availability</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Correct option:Multi-AZ enhances database availabilityAmazon RDS Multi-AZ deployments provide enhanced availability and durability for RDS database (DB) instances, making them a natural fit for production database workloads. When you provision a Multi-AZ DB Instance, Amazon RDS automatically creates a primary DB Instance and synchronously replicates the data to a standby instance in a different Availability Zone (AZ).In case of an infrastructure failure, Amazon RDS performs an automatic failover to the standby so that you can resume database operations as soon as the failover is complete.</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
   </si>
   <si>
     <t>Mixed deployment</t>
-  </si>
-  <si>
-    <t>B</t>
   </si>
   <si>
     <t>Correct option:Hybrid deploymentA hybrid deployment is a way to connect your on-premises infrastructure to the cloud. The most common method of hybrid deployment is between the cloud and existing on-premises infrastructure to extend an organization's infrastructure into the cloud while connecting cloud resources to internal systems.</t>
@@ -1029,11 +1017,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1254,21 +1244,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="157.19999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="55.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="84.6640625" style="5" customWidth="1"/>
-    <col min="8" max="29" width="55.88671875" style="5" customWidth="1"/>
-    <col min="30" max="16384" width="12.6640625" style="5"/>
+    <col min="1" max="6" width="55.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="84.6640625" style="8" customWidth="1"/>
+    <col min="8" max="29" width="55.88671875" style="8" customWidth="1"/>
+    <col min="30" max="16384" width="12.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1288,1138 +1278,1185 @@
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
+      <c r="C39" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G36" r:id="rId1" location="/." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G37" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G38" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G42" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G48" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G49" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11195AD7-97CB-40F4-8682-0F7D3F8CD7B6}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD47"/>
+      <selection sqref="A1:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
+    <row r="1" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="5" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G34" r:id="rId1" location="/." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="G35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G36" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="G40" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G46" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G47" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>